--- a/biology/Botanique/Septoria/Septoria.xlsx
+++ b/biology/Botanique/Septoria/Septoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Septoria est un genre de champignons ascomycètes de la famille des Mycosphaerellaceae.
 Ces champignons, qui produisent des pycnides,  provoquent chez les plantes cultivées, notamment dans les cultures de plein champ, de fourrages et de légumes, de nombreuses maladies appelées « septorioses », qui se manifestent principalement par des taches foliaires, ou taches septoriennes.
-Ce genre est très répandu dans le monde. On estime qu'il rassemble 1072 espèces[2].
- Septoria apiicola est l'agent pathogène de la septoriose du céleri. Cette espèce se caractérise par la production de conidies à l'intérieur de pycnides. Les symptômes de la maladie sont notamment des taches chlorotiques qui brunissent et se nécrosent. Septoria apiicola peut se transmettre par les graines[3].
+Ce genre est très répandu dans le monde. On estime qu'il rassemble 1072 espèces.
+ Septoria apiicola est l'agent pathogène de la septoriose du céleri. Cette espèce se caractérise par la production de conidies à l'intérieur de pycnides. Les symptômes de la maladie sont notamment des taches chlorotiques qui brunissent et se nécrosent. Septoria apiicola peut se transmettre par les graines.
 Plusieurs espèces de fleurs de la passion sont infectées par diverses espèces de Septoria.
-A Hawaï, un champignon, connu sous le nom de Septoria passiflorae mais qui est probablement une espèce non décrite, a été utilisé pour lutter contre une espèce envahissante, Passiflora tarminiana[4].
+A Hawaï, un champignon, connu sous le nom de Septoria passiflorae mais qui est probablement une espèce non décrite, a été utilisé pour lutter contre une espèce envahissante, Passiflora tarminiana.
 La septoriose du blé est une maladie fongique provoquée par Zymoseptoria tritici (anamorphe Mycosphaerella graminicola) , qui affecte le blé et parfois d'autres graminées. Le nom de « septoriose » vient de l'ancien nom du champignon, Septoria tritici.
 </t>
         </is>
@@ -518,9 +530,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 juillet 2014)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 juillet 2014) :
 Septoria abeliae
 Septoria acaciae
 Septoria acanthocephali
@@ -1100,7 +1114,7 @@
 Septoria zilingiae
 Septoria zingiberis
 Septoria ziziphorae
-Selon Index Fungorum                                      (27 juillet 2014)[6] :
+Selon Index Fungorum                                      (27 juillet 2014) :
 Septoria abei N. Naito 1940
 Septoria abeliae Byzova 1970
 Septoria aberiae A. Agostini 1925
@@ -1265,7 +1279,7 @@
 Septoria anodae Speg. 1882
 Septoria anomala Sacc. &amp; Fautrey 1897
 Septoria antarctica Speg. 1888
-Selon ITIS      (27 juillet 2014)[1] :
+Selon ITIS      (27 juillet 2014) :
 Septoria ascophylli Melnik &amp; Petrov
 Septoria cytisi Desm.
 Septoria thalassica Spegazzini, 1910</t>
@@ -1296,9 +1310,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (27 juillet 2014)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (27 juillet 2014) :
 Septoria abei
 Septoria aceris
 Septoria aciculosa
